--- a/Output_testing/R1_201907/Country/HKD/MN/NAMIBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NAMIBIA_201907_HKD_MN.xlsx
@@ -547,14 +547,20 @@
       <c r="D7" s="8" t="n">
         <v>1.148416</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.008571</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.001541</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.003632</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-99.25366766049933</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/NAMIBIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NAMIBIA_201907_HKD_MN.xlsx
@@ -816,136 +816,505 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>67.25222100000001</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>71.33127499462117</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>76.416523</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>88.97141350677549</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>100.358071</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>78.86200396714308</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>30.426264</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>55.3973201118912</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-40.80149365878519</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>15.986189</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>29.10617055719341</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.208996566164293</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>5.806858</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.159061792958717</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1.776829</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.068754000883165</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>16.231358</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>12.75470329624131</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.274756</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.320957518693521</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-79.28313399080938</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1.060811</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.125152448992266</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.368725397635728</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>0.865361</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.6800061214310397</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.163446</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.118294592293664</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>98.98748552634504</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.370594</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.575030890194989</v>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.381158909231628</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.3217059540346537</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.065134</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.939297219009837</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>0.633083</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.6714814305897756</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.4792298474042888</v>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3579017636047135</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8384211329056044</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>91.9452456775097</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.04874</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.221043257897192</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5153621174650781</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>738.088470421034</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.4630786874543127</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.814165</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8635466106910542</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.3702634319852162</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.053216</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.185042648654415</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4586798586861692</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-65.05501334413441</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>15.306336</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.23471234319636</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>5.27307</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>6.139411648187298</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>4.83725</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>3.80114150151474</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.99561</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.633421638242908</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-41.24334073921843</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1346,617 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0.8024966562639322</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>135.6911096690461</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.1392</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>99.19750334373607</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WOOD, SIMPLY WORKED, AND RAILWAY SLEEPERS OF WOOD</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1988,505 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>67.25222100000001</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>72.21085444373446</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>76.416523</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>88.98029300743531</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>100.358071</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>78.86295894040093</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>30.426264</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>55.40098367302058</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-40.80149365878519</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>15.986189</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>29.10809541989188</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.209208785005571</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>5.806858</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.235008622442892</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1.776829</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.068960466103754</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>16.231358</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>12.75485774832149</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.274756</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.321111009326844</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-79.28313399080938</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1.060811</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.139026601267375</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.3687621970669447</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>0.865361</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.6800143559118856</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.163446</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.118434680328847</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>98.98748552634504</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.370594</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.619114270187815</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.381196949548766</v>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.3217098497076969</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.065134</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.939425469508156</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>0.6238669999999999</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.6698658937858615</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4692975027398025</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.3566951554235231</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8318633336270328</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>91.66243649498462</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.04874</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.221165120122224</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5153961996303756</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>738.088470421034</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4631093119876976</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.814165</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8741949252231099</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3703003849149161</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.053216</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.185081217678806</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4587101923141808</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-65.05501334413441</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>14.167136</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.21170573058978</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>5.27307</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>6.140024372068289</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>4.83725</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>3.801187531139916</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.99561</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.633661925358847</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-41.24334073921843</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2518,511 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>40.292832</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>35.15077335120764</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>289.414725</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>94.86177945639113</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>390.864467</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>94.08612696222401</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>196.677104</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>94.45331682210488</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-18.64411614482063</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>61.808948</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>53.92106273951106</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>8.181594</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2.681689971475131</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>18.323676</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>4.410745545080866</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9.727092000000001</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>4.671393282431908</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-30.59614896820988</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.5360792268043382</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.4884</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.4878544882016371</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>0.5228</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.1258447142903136</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.91845</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.4410815853545527</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>135.0780650115178</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.637166</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.3059961777059382</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.06156268542283207</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>4.903015</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.277305923856912</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.546923</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.1792655470644343</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.06642232299401137</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.05505391659893283</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-39.1988077053632</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.0744465304764879</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-29.85183033120279</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>4.118201</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.592647693905374</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>3.732567</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.22342754868538</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>3.207599</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.7721105197262733</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.28779</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.3099876905430815</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.500681</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.309168283417349</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.015386</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.3328141745210343</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.699643</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.168413109105237</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.305065</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.138516250820836</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.66395</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.2176236142444752</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
